--- a/doc/LT1945-Voltage-Calculator.xlsx
+++ b/doc/LT1945-Voltage-Calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0872CB5-1580-42B7-A69A-27E202CAE98F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443599AA-C975-44DF-97BC-9BAD22B9D3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="810" windowWidth="25140" windowHeight="15030" xr2:uid="{EDC48006-BE93-47D8-9C82-DDCFBDC73C22}"/>
+    <workbookView xWindow="2295" yWindow="390" windowWidth="25590" windowHeight="14235" xr2:uid="{EDC48006-BE93-47D8-9C82-DDCFBDC73C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,16 +445,16 @@
   <dimension ref="E10:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:16">
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:16">
       <c r="F11" s="1">
         <v>224</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0.99311111111111106</v>
       </c>
     </row>
-    <row r="12" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:16">
       <c r="F12" s="1">
         <v>560</v>
       </c>
@@ -552,7 +552,7 @@
         <v>0.98772727272727279</v>
       </c>
     </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:16">
       <c r="F13" s="1">
         <v>604</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0.99222161910669981</v>
       </c>
     </row>
-    <row r="14" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:16">
       <c r="F14" s="1">
         <v>365</v>
       </c>
@@ -624,7 +624,51 @@
         <v>0.99380434782608695</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:16">
+      <c r="F15" s="1">
+        <v>560</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1">
+        <f>F15*(1.23/G15+2/1000000) + 1.23</f>
+        <v>15.00712</v>
+      </c>
+      <c r="L15" s="1">
+        <v>560</v>
+      </c>
+      <c r="M15" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="N15" s="1">
+        <f>(L15/M15+1) * 1.23</f>
+        <v>21.914684684684687</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16">
+      <c r="F16" s="1">
+        <v>560</v>
+      </c>
+      <c r="G16" s="1">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1">
+        <f>F16*(1.23/G16+2/1000000) + 1.23</f>
+        <v>20.364453333333334</v>
+      </c>
+      <c r="L16" s="1">
+        <v>560</v>
+      </c>
+      <c r="M16" s="1">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1">
+        <f>(L16/M16+1) * 1.23</f>
+        <v>15.005999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
@@ -638,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:9">
       <c r="F20" s="1">
         <f>(ABS(I20)-1.23)/(1.23/G20+2/1000000)</f>
         <v>111.94939919676102</v>
@@ -650,7 +694,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:9">
       <c r="F21" s="1">
         <f t="shared" ref="F21:F29" si="2">(ABS(I21)-1.23)/(1.23/G21+2/1000000)</f>
         <v>526.13052335837756</v>
@@ -662,7 +706,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:9">
       <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>201.50629737666213</v>
@@ -674,7 +718,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:9">
       <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>223.8951578810445</v>
@@ -686,7 +730,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:9">
       <c r="F24" s="1">
         <f t="shared" si="2"/>
         <v>111.94939919676102</v>
@@ -698,7 +742,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:9">
       <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>111.94939919676102</v>
@@ -710,7 +754,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:9">
       <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>111.94939919676102</v>
@@ -722,7 +766,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:9">
       <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>111.94939919676102</v>
@@ -734,7 +778,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:9">
       <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>111.94939919676102</v>
@@ -746,7 +790,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:9">
       <c r="F29" s="1">
         <f t="shared" si="2"/>
         <v>111.94939919676102</v>
